--- a/biology/Zoologie/Hydriris_ornatalis/Hydriris_ornatalis.xlsx
+++ b/biology/Zoologie/Hydriris_ornatalis/Hydriris_ornatalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydriris ornatalisest une espèce de papillons de la famille des Crambidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hydriris ornatalis a été initialement décrite en 1832 par l'entomologiste français Philogène Duponchel (1774-1846) sous le protonyme d’Asopia ornatalis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hydriris ornatalis a été initialement décrite en 1832 par l'entomologiste français Philogène Duponchel (1774-1846) sous le protonyme d’Asopia ornatalis.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses larves se nourrissent de Convolvulaceae, y compris Ipomoea aquatica. Son envergure est d'environ 14-18 mm.
 </t>
@@ -573,15 +589,17 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Asopia ornatalis Duponchel, 1832[1]
-Botys invenustalis Walker, 1866[1]
-Cataclysta fraterna Butler, 1875[1]
-Ercta orientalis Yamanaka, 1972[1]
-Nymphula saturnalis Treitschke, 1835[1]
-Pyralis deciusalis Walker, 1859[1]
-Stenia pulchellalis Mabille, 1880[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Asopia ornatalis Duponchel, 1832
+Botys invenustalis Walker, 1866
+Cataclysta fraterna Butler, 1875
+Ercta orientalis Yamanaka, 1972
+Nymphula saturnalis Treitschke, 1835
+Pyralis deciusalis Walker, 1859
+Stenia pulchellalis Mabille, 1880</t>
         </is>
       </c>
     </row>
